--- a/app/data/2023-07-21/CLIENTESDUSNEI0022023-07-21.xlsx
+++ b/app/data/2023-07-21/CLIENTESDUSNEI0022023-07-21.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3575</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>LUCéLIA</t>
@@ -531,11 +527,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3704</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>PIRAPOZINHO</t>
@@ -578,11 +570,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3513</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>IRAPURU</t>
@@ -625,11 +613,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3656</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>OURINHOS</t>
@@ -672,11 +656,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>ARAçATUBA</t>
@@ -719,11 +699,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3741</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>REGENTE FEIJó</t>
@@ -766,11 +742,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>ARAçATUBA</t>
@@ -813,11 +785,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3462</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>GUAIçARA</t>
@@ -860,11 +828,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3700</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>PIRAJU</t>
@@ -907,11 +871,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>ARAçATUBA</t>
@@ -954,11 +914,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>ARAçATUBA</t>
@@ -1001,11 +957,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3872</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>TEODORO SAMPAIO</t>
@@ -1048,11 +1000,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3872</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>TEODORO SAMPAIO</t>
@@ -1095,11 +1043,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3289</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>ANDRADINA</t>
@@ -1142,11 +1086,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3405</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>COROADOS</t>
@@ -1168,6 +1108,49 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>76184</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EMPORIO NELORE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PARAPUã</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>17730000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ocz-Fernando H.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
